--- a/Data/Hist_30_year_rates.xlsx
+++ b/Data/Hist_30_year_rates.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SJR/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rewel\Project-3\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4203637E-624E-704B-9A15-816153FDC57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0BC225-BE63-4638-9D39-F8786C05668F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{5FC02BDB-9D8D-1044-98E7-27792CBDF40B}"/>
+    <workbookView xWindow="8565" yWindow="3030" windowWidth="23160" windowHeight="21165" xr2:uid="{5FC02BDB-9D8D-1044-98E7-27792CBDF40B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>30_yr_rate</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t> 3.90</t>
   </si>
 </sst>
 </file>
@@ -50,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -97,7 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,16 +412,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859FB8CB-1BC5-4343-A4C2-0225BB494168}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -432,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>43831</v>
       </c>
@@ -446,7 +443,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>43862</v>
       </c>
@@ -460,7 +457,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>43891</v>
       </c>
@@ -474,7 +471,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>43922</v>
       </c>
@@ -488,7 +485,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>43952</v>
       </c>
@@ -502,7 +499,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>43983</v>
       </c>
@@ -516,7 +513,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44013</v>
       </c>
@@ -530,7 +527,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44044</v>
       </c>
@@ -544,7 +541,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44075</v>
       </c>
@@ -558,7 +555,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44105</v>
       </c>
@@ -572,7 +569,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44136</v>
       </c>
@@ -584,7 +581,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44166</v>
       </c>
@@ -592,7 +589,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43466</v>
       </c>
@@ -600,7 +597,7 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43497</v>
       </c>
@@ -608,7 +605,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43525</v>
       </c>
@@ -616,7 +613,7 @@
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43556</v>
       </c>
@@ -624,7 +621,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43586</v>
       </c>
@@ -632,7 +629,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43617</v>
       </c>
@@ -640,7 +637,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43647</v>
       </c>
@@ -648,7 +645,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43678</v>
       </c>
@@ -656,7 +653,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43709</v>
       </c>
@@ -664,7 +661,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43739</v>
       </c>
@@ -672,7 +669,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43770</v>
       </c>
@@ -680,7 +677,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43800</v>
       </c>
@@ -688,7 +685,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43101</v>
       </c>
@@ -696,7 +693,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43132</v>
       </c>
@@ -704,7 +701,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43160</v>
       </c>
@@ -712,7 +709,7 @@
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43191</v>
       </c>
@@ -720,7 +717,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43221</v>
       </c>
@@ -728,7 +725,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43252</v>
       </c>
@@ -736,7 +733,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43282</v>
       </c>
@@ -744,7 +741,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43313</v>
       </c>
@@ -752,7 +749,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43344</v>
       </c>
@@ -760,7 +757,7 @@
         <v>4.63</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43374</v>
       </c>
@@ -768,7 +765,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43405</v>
       </c>
@@ -776,7 +773,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43435</v>
       </c>
@@ -784,7 +781,7 @@
         <v>4.6399999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>42736</v>
       </c>
@@ -801,7 +798,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>42767</v>
       </c>
@@ -818,7 +815,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>42795</v>
       </c>
@@ -835,7 +832,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>42826</v>
       </c>
@@ -852,7 +849,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42856</v>
       </c>
@@ -869,7 +866,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42887</v>
       </c>
@@ -886,7 +883,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42917</v>
       </c>
@@ -903,7 +900,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42948</v>
       </c>
@@ -920,7 +917,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42979</v>
       </c>
@@ -937,12 +934,12 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43009</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>2</v>
+      <c r="B47" s="4">
+        <v>3.9</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -954,7 +951,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43040</v>
       </c>
@@ -971,7 +968,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43070</v>
       </c>
@@ -988,7 +985,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42370</v>
       </c>
@@ -996,7 +993,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42401</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42430</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42461</v>
       </c>
@@ -1020,7 +1017,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42491</v>
       </c>
@@ -1028,7 +1025,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42522</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42552</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42583</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42614</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42644</v>
       </c>
@@ -1068,7 +1065,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42675</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42705</v>
       </c>
